--- a/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>431e8989-00cf-4219-96b5-bbc79c59f319</t>
+    <t>ee3d1d0c-4275-4527-af60-a4da2585e360</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>

--- a/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>ee3d1d0c-4275-4527-af60-a4da2585e360</t>
+    <t>c68c99c5-07c9-4f93-b8c7-2937196073fb</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>

--- a/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>c68c99c5-07c9-4f93-b8c7-2937196073fb</t>
+    <t>a3699543-65e6-4dc7-860f-854f6f97d60a</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>

--- a/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>a3699543-65e6-4dc7-860f-854f6f97d60a</t>
+    <t>412ce1c9-c9d3-4572-8130-77d55bc08ea9</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>

--- a/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>412ce1c9-c9d3-4572-8130-77d55bc08ea9</t>
+    <t>87bf8183-c110-470c-8207-677bb73f97de</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>

--- a/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>87bf8183-c110-470c-8207-677bb73f97de</t>
+    <t>bdd9d3fa-23bc-44c0-8f4f-bd1129e4b51d</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>
